--- a/Requirement List.xlsx
+++ b/Requirement List.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwpark\Desktop\swe\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="9945"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>No</t>
   </si>
@@ -56,30 +64,76 @@
   </si>
   <si>
     <t>대여 금액 및 횟수 통계</t>
+  </si>
+  <si>
+    <t>게스트가 필수 입력 정보 (ID, 비밀
+번호, 전화번호, 결제 수단, 선호 자전거 유형(일반/전기) 등)을 입력하여 회원 계정을 생성하는 기능</t>
+  </si>
+  <si>
+    <t>회원 가입</t>
+  </si>
+  <si>
+    <t>회원 정보를 회원 리스트에서 삭제하는 기능</t>
+  </si>
+  <si>
+    <t>회원 탈퇴</t>
+  </si>
+  <si>
+    <t>회원이 ID와 비밀번호를 입력하고 시스템에 접속한다.</t>
+  </si>
+  <si>
+    <t>로그인하기</t>
+  </si>
+  <si>
+    <t>로그아웃으로 시스템 접속을 종료한다.</t>
+  </si>
+  <si>
+    <t>로그아웃하기</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -93,46 +147,86 @@
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -322,25 +416,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.63"/>
-    <col customWidth="1" min="2" max="2" width="55.75"/>
-    <col customWidth="1" min="3" max="3" width="28.38"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -351,9 +450,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -362,9 +461,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -373,9 +472,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -384,9 +483,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -395,9 +494,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -406,9 +505,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -417,7 +516,53 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Requirement List.xlsx
+++ b/Requirement List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwpark\Desktop\swe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\GitHub\sw-engineering21\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B171589E-907D-4CDF-8991-C6B78952239E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="9945"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -89,12 +90,72 @@
   </si>
   <si>
     <t>로그아웃하기</t>
+  </si>
+  <si>
+    <t>관리자가 대여소의 정보(대여소 이름, 위치(도시, 주소), 
+자전거 보관 가능 수량, 운영 시간 등)를 입력하고 
+대여소 정보 리스트에 등록하는 기능</t>
+  </si>
+  <si>
+    <t>대여소 정보 등록</t>
+  </si>
+  <si>
+    <t>대여소의 리스트를 조회하고 관리자가 대여소의 상세 정보(대여소 이름, 
+위치(도시, 주소), 자전거 보관 가능 수량, 운영 시간 등)를 보는 기능</t>
+  </si>
+  <si>
+    <t>대여소 리스트 조회/ 대여소 상세내용 조회</t>
+  </si>
+  <si>
+    <t>대여소의 정보를 리스트에서 삭제하는 기능</t>
+  </si>
+  <si>
+    <t>대여소 정보 삭제</t>
+  </si>
+  <si>
+    <t>자전거의 정보(자전거 ID,
+자전거 제품명, 유형(일반/전기), 소속 대여소, 
+상태(사용 가능/수리 중) 등)를 입력하고 자전거 정보 리스트에 등록하는 기능</t>
+  </si>
+  <si>
+    <t>자전거 정보 등록</t>
+  </si>
+  <si>
+    <t>자전거의 리스트를 조회하고 특정 자전거의 상세정보를 조회하는 기능</t>
+  </si>
+  <si>
+    <t>자전거 리스트 조회/ 자전거 상세내용 조회</t>
+  </si>
+  <si>
+    <t>자전거의 정보를 리스트에서 삭제하는 기능</t>
+  </si>
+  <si>
+    <t>자전거 정보 삭제</t>
+  </si>
+  <si>
+    <t>대여소 이름을 입력하여 검색하는 기능</t>
+  </si>
+  <si>
+    <t>대여소 검색</t>
+  </si>
+  <si>
+    <t>회원이 대여소의 상세 정보(대여소 이름, 대여소 위치, 사용 가능 
+자전거 목록 등)를 보는 기능</t>
+  </si>
+  <si>
+    <t>대여소 상세정보 조회</t>
+  </si>
+  <si>
+    <t>자전거 대여/예약 대기를 위한 전화번호 입력</t>
+  </si>
+  <si>
+    <t>자전거 대여, 자전거 예약 대기</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -181,9 +242,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -205,8 +266,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,24 +486,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.53515625" customWidth="1"/>
+    <col min="2" max="2" width="55.69140625" customWidth="1"/>
+    <col min="3" max="3" width="28.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -461,7 +525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -472,7 +536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -483,7 +547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -494,7 +558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="24.9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -505,7 +569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="25.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -516,7 +580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -527,8 +591,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -538,8 +602,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -549,8 +613,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -558,6 +622,170 @@
       </c>
       <c r="C11" s="7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="37.299999999999997" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="37.299999999999997" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="49.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Requirement List.xlsx
+++ b/Requirement List.xlsx
@@ -11,7 +11,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>팀 코드</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>역할 분담 &amp; 실제 수행 내용</t>
+  </si>
+  <si>
+    <t>김수현</t>
+  </si>
+  <si>
+    <t>자전거 대여 정보 조회 기능, 자전거 예약대기 정보 조회/취소 기능, 자전거 반납 및 식당 예약 서비스 연계 기능, 결제 기능의 requirement list, use case diagrams,  use case descriptions</t>
+  </si>
+  <si>
+    <t>박지원</t>
+  </si>
+  <si>
+    <t>회원가입 기능, 회원 탈퇴 기능, 로그인/로그아웃 기능의 requirement list, use case diagrams,  use case descriptions</t>
+  </si>
+  <si>
+    <t>왕석민</t>
+  </si>
+  <si>
+    <t>대여소 등록/조회/삭제 기능, 자전거 등록/조회/삭제 기능,  대여소 검색 기능, 상세정보 조회 및 자전거 즉시대여/예약대기 기능의 requirement list, use case diagrams,  use case descriptions</t>
+  </si>
+  <si>
+    <t>조승연</t>
+  </si>
+  <si>
+    <t>결제 및 요금 조회 기능, 이용 내역 조회/삭제 기능, 통계 기능의 requirement list, use case diagrams,  use case descriptions</t>
+  </si>
+  <si>
+    <t>* Usecase Diagram은 각자 본인이 맡은 기능을 구현 후, 회의를 통해 하나로 통합하였습니다.
+* Usecase Descriptions &amp; Requirement list는 구글 스프레드 시트를 이용하여 회의를 통해 하나로 통합하였습니다.</t>
+  </si>
   <si>
     <t>No</t>
   </si>
@@ -19,43 +56,127 @@
     <t>Requirement</t>
   </si>
   <si>
-    <t>Use case (s)</t>
-  </si>
-  <si>
-    <t>회원이 자전거 반납 시 사용 시간에 따라 요금 자동 결제</t>
-  </si>
-  <si>
-    <t>자전거 반납 (반납 기능에 추가해야할듯)</t>
-  </si>
-  <si>
-    <t>회원은 대여 시간 및 요금 내역 조회 가능</t>
+    <t>Use case(s)</t>
+  </si>
+  <si>
+    <t>게스트가 필수 입력 정보 (ID, 비밀
+번호, 전화번호, 결제 수단, 선호 자전거 유형(일반/전기) 등)을 입력하여 회원 계정을 생성한다.</t>
+  </si>
+  <si>
+    <t>회원 가입</t>
+  </si>
+  <si>
+    <t>회원 정보를 회원 리스트에서 삭제한다.</t>
+  </si>
+  <si>
+    <t>회원 탈퇴</t>
+  </si>
+  <si>
+    <t>멤버가 ID와 비밀번호를 입력하고 시스템에 접속한다.</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>멤버가 로그아웃으로 시스템 접속을 종료한다.</t>
+  </si>
+  <si>
+    <t>로그아웃</t>
+  </si>
+  <si>
+    <t>관리자는 자전거의 정보(자전거 ID, 자전거 제품명, 유형(일반/전기), 소속 대여소, 
+상태(사용 가능/수리 중) 등)를 입력하고 자전거 정보 리스트에 등록한다.</t>
+  </si>
+  <si>
+    <t>자전거 정보 등록</t>
+  </si>
+  <si>
+    <t>관리자는 자전거의 리스트를 조회하고 원하는 경우 자전거의 정보를 리스트에서 삭제한다.</t>
+  </si>
+  <si>
+    <t>자전거 리스트 조회</t>
+  </si>
+  <si>
+    <t>관리자는 특정 자전거의 상세정보(자전거 ID, 자전거 제품명, 유형(일반/전기), 소속 대여소, 
+상태(사용 가능/수리 중) 등)를 조회할 수 있다.</t>
+  </si>
+  <si>
+    <t>자전거 상세내용 조회</t>
+  </si>
+  <si>
+    <t>관리자는 대여소의 정보(대여소 이름, 위치(도시, 주소), 
+자전거 보관 가능 수량, 운영 시간 등)를 입력하고 
+대여소 정보 리스트에 등록한다.</t>
+  </si>
+  <si>
+    <t>대여소 정보 등록</t>
+  </si>
+  <si>
+    <t>관리자는 대여소의 리스트를 조회하고 원하는 경우 특정 대여소 정보를 선택
+해서 삭제할 수 있다.</t>
+  </si>
+  <si>
+    <t>대여소 리스트 조회</t>
+  </si>
+  <si>
+    <t>관리자는 대여소의 상세 정보(대여소 이름, 위치(도시, 주소), 자전거 보관 가능 수량, 운영 시간 등)를 볼 수 있다.</t>
+  </si>
+  <si>
+    <t>대여소 상세내용 조회</t>
+  </si>
+  <si>
+    <t>회원은 대여소 이름을 입력하여 검색한다.</t>
+  </si>
+  <si>
+    <t>대여소 검색</t>
+  </si>
+  <si>
+    <t>회원은 대여소의 상세 정보(대여소 이름, 대여소 위치, 사용 가능 
+자전거 목록 등)를 볼 수 있다. 원하는 경우 전화번호를 입력받아 자전거 대여와 예약 대기를 할 수 있다.</t>
+  </si>
+  <si>
+    <t>대여소 상세정보 조회</t>
+  </si>
+  <si>
+    <t>회원이 현재 대여 중인 자전거를 조회하면 자전거 정보인 대여소 이름, 대여소 위치, 자전거 ID, 자전거 제품명, 자전거 유형을 보여준다. 
+(option) 회원이 지정된 대여소에서 사용중인 자전거를 반납할 수 있게 한다. 
+(option) 회원이 자전거 반납 후 원하는 경우에 근처 추천 식당 예약 시스템으로 연결된다. 
+(option) 반납한 자전거에 대기 예약한 다른 회원이 있는 경우 대기 1순위 회원에게 예약이 되었다는 이메일을 보낸다. 
+(option) - 시스템은 자전거 반납 시, 사용 시간을 기반으로 외부 결제 시스템에 요금을 자동 결제 요청해야 한다.</t>
+  </si>
+  <si>
+    <t>자전거 대여 정보 조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">회원이 자전거 예약대기 정보(대여소 이름, 대여소 위치, 자전거 ID, 자전거 제품명, 자전거 유형)를 조회하면 해당 리스트가 출력된다. 
+(option) 회원은 각 예약대기에 대해 취소할 수 있다.  </t>
+  </si>
+  <si>
+    <t>자전거 예약 대기 정보 조회</t>
+  </si>
+  <si>
+    <t>회원은 대여 시간 및 요금 내역 조회가 가능하다.</t>
   </si>
   <si>
     <t>요금 조회</t>
   </si>
   <si>
-    <t>회원은 과거 대여 기록을 날짜별로 조회 가능. 원하는 경우 대여소별 정렬 가능</t>
+    <t>회원은 과거 대여 기록을 날짜별로 조회 가능하다. 원하는 경우 대여소별로 정렬하거나 조회된 대여 기록 중 특정 기록을 삭제할 수 있다.</t>
   </si>
   <si>
     <t>대여 기록 조회</t>
   </si>
   <si>
-    <t>회원은 조회된 대여 기록 중 특정 기록 삭제 가능</t>
-  </si>
-  <si>
-    <t>대여 기록 삭제</t>
-  </si>
-  <si>
-    <t>관리자는 반납 시간 기준 최근순으로 자전거 대여 정보 조회 가능, 원하는 경우 지역별 기준으로 정렬 하여 조회 가능</t>
+    <t>관리자는 반납 시간 기준 최근순으로 자전거 대여 정보를 조회할 수 있다. 원하는 경우 지역별 기준으로 정렬하여 조회할 수 있다.</t>
   </si>
   <si>
     <t>전체 대여 정보 조회</t>
   </si>
   <si>
-    <t>대여 금액 및 대여 횟수 조회 가능. 단위는 1주일, 1개월, 1년 중 선택 가능</t>
-  </si>
-  <si>
-    <t>대여 금액 및 횟수 통계</t>
+    <t>1주일, 1개월, 1년 중 기간 단위를 선택하여 대여 금액 및 대여 횟수를 조회할 수 있다.</t>
+  </si>
+  <si>
+    <t>대여 금액 및 횟수 통계 조회</t>
   </si>
 </sst>
 </file>
@@ -74,7 +195,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +214,12 @@
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -100,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -108,27 +235,123 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle count="3" pivot="0" name="시트1-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A11:C11" displayName="Table_1" name="Table_1" id="1">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="시트1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
+    </ext>
+  </extLst>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,80 +567,290 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2">
+        <v>10580.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12">
         <v>1.0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
+      <c r="B13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="12">
         <v>3.0</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
+      <c r="B14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="13">
         <v>4.0</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
+      <c r="B15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="12">
         <v>5.0</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
+      <c r="B17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12">
+        <v>9.0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="12">
+        <v>11.0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="12">
+        <v>13.0</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="12">
+        <v>15.0</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="18">
+        <v>16.0</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="12">
+        <v>17.0</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>